--- a/docs/datasets/excel/2425-2.xlsx
+++ b/docs/datasets/excel/2425-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aslab\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natan\Documents\IFLAB Stuff\data-praktikum-iflab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527151B9-59E7-4C6D-B3DD-13AEF528BD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447B1ABB-39CC-4196-8E9B-D90366FA0E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="praktikum" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="665">
   <si>
     <t>nama_singkat</t>
   </si>
@@ -1071,6 +1074,9 @@
     <t>MUH. GHAZALI</t>
   </si>
   <si>
+    <t xml:space="preserve">NADIELLA FITANTRIANI PUTRI </t>
+  </si>
+  <si>
     <t>NADYA WIDDY ASTUTI</t>
   </si>
   <si>
@@ -1315,9 +1321,6 @@
   </si>
   <si>
     <t>STEVENT RANGGA RAMADITYA</t>
-  </si>
-  <si>
-    <t>1302213043 </t>
   </si>
   <si>
     <t>APM</t>
@@ -2087,18 +2090,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -2133,13 +2125,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C9F20098-C5B6-4861-938F-6C9F70078F24}" name="Table5" displayName="Table5" ref="A1:D203" totalsRowShown="0">
-  <autoFilter ref="A1:D203" xr:uid="{C9F20098-C5B6-4861-938F-6C9F70078F24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C9F20098-C5B6-4861-938F-6C9F70078F24}" name="Table5" displayName="Table5" ref="A1:D206" totalsRowShown="0">
+  <autoFilter ref="A1:D206" xr:uid="{C9F20098-C5B6-4861-938F-6C9F70078F24}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{21A4836E-464F-4F97-9559-955276C41D49}" name="nama_lengkap"/>
-    <tableColumn id="2" xr3:uid="{481E18AF-32E7-4268-BA7E-18ABC65D69EC}" name="nim" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{481E18AF-32E7-4268-BA7E-18ABC65D69EC}" name="nim" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{5AD6B4EF-5D01-443D-9B24-DD656A62BFD5}" name="kode"/>
-    <tableColumn id="4" xr3:uid="{BA910DE9-4FE7-42BF-AB29-8CD75F6813F5}" name="angkatan" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BA910DE9-4FE7-42BF-AB29-8CD75F6813F5}" name="angkatan" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2165,7 +2157,7 @@
     <tableColumn id="1" xr3:uid="{348909AE-CCA5-4468-874F-84FCB3068B98}" name="kelas"/>
     <tableColumn id="2" xr3:uid="{12571E79-1465-493F-8B89-3C0EA8D60AAF}" name="hari"/>
     <tableColumn id="3" xr3:uid="{15F22361-9632-45F0-9775-6CA2EB4DB688}" name="sesi"/>
-    <tableColumn id="4" xr3:uid="{6467C4FB-F7E5-4626-9235-D8477E09DFAA}" name="jam" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6467C4FB-F7E5-4626-9235-D8477E09DFAA}" name="jam" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{CB441EBA-95E1-4987-9330-DB09F9E467E6}" name="ruangan"/>
     <tableColumn id="8" xr3:uid="{B6ABB742-2E25-426D-9DE9-392245B87021}" name="total_asprak"/>
     <tableColumn id="6" xr3:uid="{2D19858F-1638-4FC9-932E-366E5B304B43}" name="dosen"/>
@@ -2451,15 +2443,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2467,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2475,7 +2467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2483,7 +2475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2491,7 +2483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2499,7 +2491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2507,7 +2499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2515,7 +2507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2523,7 +2515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2531,7 +2523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2539,7 +2531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2547,7 +2539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2555,7 +2547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2563,7 +2555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2581,20 +2573,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84234EF2-50CE-432F-9452-A89DB16B6AB6}">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182:XFD182"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2608,7 +2598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2619,10 +2609,10 @@
         <v>86</v>
       </c>
       <c r="D2" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>259</v>
       </c>
@@ -2633,10 +2623,10 @@
         <v>283</v>
       </c>
       <c r="D3" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2647,10 +2637,10 @@
         <v>87</v>
       </c>
       <c r="D4" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>327</v>
       </c>
@@ -2658,27 +2648,27 @@
         <v>1303223013</v>
       </c>
       <c r="C5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D5" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B6" s="2">
         <v>1301223087</v>
       </c>
       <c r="C6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D6" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>432</v>
       </c>
@@ -2689,10 +2679,10 @@
         <v>451</v>
       </c>
       <c r="D7" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>328</v>
       </c>
@@ -2700,13 +2690,13 @@
         <v>1301223035</v>
       </c>
       <c r="C8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D8" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>260</v>
       </c>
@@ -2717,10 +2707,10 @@
         <v>284</v>
       </c>
       <c r="D9" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>307</v>
       </c>
@@ -2731,10 +2721,10 @@
         <v>317</v>
       </c>
       <c r="D10" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>329</v>
       </c>
@@ -2742,13 +2732,13 @@
         <v>1301223472</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D11" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>219</v>
       </c>
@@ -2759,10 +2749,10 @@
         <v>239</v>
       </c>
       <c r="D12" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>261</v>
       </c>
@@ -2773,10 +2763,10 @@
         <v>285</v>
       </c>
       <c r="D13" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -2787,10 +2777,10 @@
         <v>170</v>
       </c>
       <c r="D14" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -2801,10 +2791,10 @@
         <v>286</v>
       </c>
       <c r="D15" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>263</v>
       </c>
@@ -2815,10 +2805,10 @@
         <v>287</v>
       </c>
       <c r="D16" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2829,10 +2819,10 @@
         <v>88</v>
       </c>
       <c r="D17" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>433</v>
       </c>
@@ -2843,10 +2833,10 @@
         <v>452</v>
       </c>
       <c r="D18" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -2857,12 +2847,12 @@
         <v>108</v>
       </c>
       <c r="D19" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B20" s="2">
         <v>1302210128</v>
@@ -2871,10 +2861,10 @@
         <v>426</v>
       </c>
       <c r="D20" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -2885,10 +2875,10 @@
         <v>171</v>
       </c>
       <c r="D21" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>264</v>
       </c>
@@ -2899,10 +2889,10 @@
         <v>288</v>
       </c>
       <c r="D22" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -2913,10 +2903,10 @@
         <v>89</v>
       </c>
       <c r="D23" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -2927,10 +2917,10 @@
         <v>172</v>
       </c>
       <c r="D24" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -2941,10 +2931,10 @@
         <v>173</v>
       </c>
       <c r="D25" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -2955,10 +2945,10 @@
         <v>174</v>
       </c>
       <c r="D26" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -2969,24 +2959,24 @@
         <v>175</v>
       </c>
       <c r="D27" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B28" s="2">
         <v>1302213002</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D28" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -2997,10 +2987,10 @@
         <v>176</v>
       </c>
       <c r="D29" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>265</v>
       </c>
@@ -3011,12 +3001,12 @@
         <v>289</v>
       </c>
       <c r="D30" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B31" s="2">
         <v>1302210134</v>
@@ -3025,10 +3015,10 @@
         <v>427</v>
       </c>
       <c r="D31" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>330</v>
       </c>
@@ -3036,13 +3026,13 @@
         <v>1301223482</v>
       </c>
       <c r="C32" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D32" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3053,10 +3043,10 @@
         <v>90</v>
       </c>
       <c r="D33" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -3067,10 +3057,10 @@
         <v>177</v>
       </c>
       <c r="D34" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>331</v>
       </c>
@@ -3078,13 +3068,13 @@
         <v>1301223399</v>
       </c>
       <c r="C35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D35" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>266</v>
       </c>
@@ -3095,10 +3085,10 @@
         <v>290</v>
       </c>
       <c r="D36" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>267</v>
       </c>
@@ -3109,12 +3099,12 @@
         <v>291</v>
       </c>
       <c r="D37" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B38" s="2">
         <v>1302213111</v>
@@ -3123,10 +3113,10 @@
         <v>428</v>
       </c>
       <c r="D38" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>332</v>
       </c>
@@ -3134,13 +3124,13 @@
         <v>1301213072</v>
       </c>
       <c r="C39" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D39" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>268</v>
       </c>
@@ -3151,10 +3141,10 @@
         <v>292</v>
       </c>
       <c r="D40" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>308</v>
       </c>
@@ -3165,10 +3155,10 @@
         <v>318</v>
       </c>
       <c r="D41" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>434</v>
       </c>
@@ -3179,10 +3169,10 @@
         <v>453</v>
       </c>
       <c r="D42" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>309</v>
       </c>
@@ -3193,10 +3183,10 @@
         <v>319</v>
       </c>
       <c r="D43" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -3207,10 +3197,10 @@
         <v>110</v>
       </c>
       <c r="D44" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -3221,2226 +3211,2264 @@
         <v>178</v>
       </c>
       <c r="D45" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>333</v>
       </c>
       <c r="B46" s="2">
+        <v>1301223344</v>
+      </c>
+      <c r="C46" t="s">
+        <v>359</v>
+      </c>
+      <c r="D46" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>333</v>
+      </c>
+      <c r="B47" s="2">
         <v>1301223334</v>
       </c>
-      <c r="C46" t="s">
-        <v>358</v>
-      </c>
-      <c r="D46" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>378</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="C47" t="s">
+        <v>359</v>
+      </c>
+      <c r="D47" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" s="2">
         <v>1302223107</v>
       </c>
-      <c r="C47" t="s">
-        <v>387</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+      <c r="C48" t="s">
+        <v>388</v>
+      </c>
+      <c r="D48" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B49" s="2">
         <v>103012300394</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="D49" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>220</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B50" s="2">
         <v>1303210039</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>240</v>
       </c>
-      <c r="D49" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="D50" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>334</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B51" s="2">
         <v>1301223228</v>
-      </c>
-      <c r="C50" t="s">
-        <v>359</v>
-      </c>
-      <c r="D50" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>335</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1301220090</v>
       </c>
       <c r="C51" t="s">
         <v>360</v>
       </c>
       <c r="D51" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="B52" s="2">
+        <v>1301220090</v>
+      </c>
+      <c r="C52" t="s">
+        <v>361</v>
+      </c>
+      <c r="D52" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>397</v>
+      </c>
+      <c r="B53" s="2">
         <v>1301223166</v>
       </c>
-      <c r="C52" t="s">
-        <v>408</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="C53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D53" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B54" s="2">
         <v>1301223401</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>180</v>
       </c>
-      <c r="D53" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+      <c r="D54" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B55" s="2">
         <v>1302213116</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>397</v>
-      </c>
-      <c r="B55" s="2">
+      <c r="D55" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>398</v>
+      </c>
+      <c r="B56" s="2">
         <v>1301210376</v>
       </c>
-      <c r="C55" t="s">
-        <v>409</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="C56" t="s">
+        <v>410</v>
+      </c>
+      <c r="D56" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>336</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B57" s="2">
         <v>1303213011</v>
       </c>
-      <c r="C56" t="s">
-        <v>361</v>
-      </c>
-      <c r="D56" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="C57" t="s">
+        <v>362</v>
+      </c>
+      <c r="D57" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B58" s="2">
         <v>1302223127</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+      <c r="D58" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>221</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B59" s="2">
         <v>103012300317</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>241</v>
       </c>
-      <c r="D58" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="D59" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>435</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B60" s="2">
         <v>1303213060</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>454</v>
       </c>
-      <c r="D59" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="D60" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B61" s="2">
         <v>1302220084</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>93</v>
       </c>
-      <c r="D60" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="D61" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B62" s="2">
         <v>1302220002</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>94</v>
       </c>
-      <c r="D61" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="D62" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B63" s="2">
         <v>1301220215</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>181</v>
       </c>
-      <c r="D62" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="D63" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B64" s="2">
         <v>1302220053</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="D64" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B65" s="2">
         <v>103012300452</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>182</v>
       </c>
-      <c r="D64" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="D65" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B66" s="2">
         <v>1301223088</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>183</v>
       </c>
-      <c r="D65" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+      <c r="D66" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B67" s="2">
         <v>103032330095</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="D67" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>337</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B68" s="2">
         <v>1301213435</v>
       </c>
-      <c r="C67" t="s">
-        <v>362</v>
-      </c>
-      <c r="D67" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="C68" t="s">
+        <v>363</v>
+      </c>
+      <c r="D68" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B69" s="2">
         <v>103032300130</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>185</v>
       </c>
-      <c r="D68" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="D69" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>222</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B70" s="2">
         <v>1302223070</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>242</v>
       </c>
-      <c r="D69" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="D70" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>338</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B71" s="2">
         <v>1301223323</v>
       </c>
-      <c r="C70" t="s">
-        <v>363</v>
-      </c>
-      <c r="D70" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>398</v>
-      </c>
-      <c r="B71" s="2">
+      <c r="C71" t="s">
+        <v>364</v>
+      </c>
+      <c r="D71" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>399</v>
+      </c>
+      <c r="B72" s="2">
         <v>1302223044</v>
       </c>
-      <c r="C71" t="s">
-        <v>410</v>
-      </c>
-      <c r="D71" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+      <c r="C72" t="s">
+        <v>411</v>
+      </c>
+      <c r="D72" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>339</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B73" s="2">
         <v>1301213550</v>
       </c>
-      <c r="C72" t="s">
-        <v>364</v>
-      </c>
-      <c r="D72" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+      <c r="C73" t="s">
+        <v>365</v>
+      </c>
+      <c r="D73" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>269</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B74" s="2">
         <v>1301223438</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>293</v>
       </c>
-      <c r="D73" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+      <c r="D74" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>340</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B75" s="2">
         <v>1301223362</v>
       </c>
-      <c r="C74" t="s">
-        <v>365</v>
-      </c>
-      <c r="D74" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+      <c r="C75" t="s">
+        <v>366</v>
+      </c>
+      <c r="D75" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>270</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B76" s="2">
         <v>1305210004</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>294</v>
       </c>
-      <c r="D75" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+      <c r="D76" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B77" s="2">
         <v>1302210009</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+      <c r="D77" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>223</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B78" s="2">
         <v>1303223017</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>243</v>
       </c>
-      <c r="D77" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+      <c r="D78" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>137</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B79" s="2">
         <v>1301223155</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+      <c r="D79" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B80" s="2">
         <v>1301220427</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>187</v>
       </c>
-      <c r="D79" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+      <c r="D80" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>224</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B81" s="2">
         <v>1303220150</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>244</v>
       </c>
-      <c r="D80" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+      <c r="D81" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>139</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B82" s="2">
         <v>103032330054</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>188</v>
       </c>
-      <c r="D81" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+      <c r="D82" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>310</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B83" s="2">
         <v>1302223139</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>320</v>
       </c>
-      <c r="D82" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>379</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="D83" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>380</v>
+      </c>
+      <c r="B84" s="2">
         <v>1302223042</v>
       </c>
-      <c r="C83" t="s">
-        <v>388</v>
-      </c>
-      <c r="D83" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+      <c r="C84" t="s">
+        <v>389</v>
+      </c>
+      <c r="D84" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>140</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B85" s="2">
         <v>1301223287</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+      <c r="D85" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1301223276</v>
+      </c>
+      <c r="C86" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>341</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B87" s="2">
         <v>1301223157</v>
       </c>
-      <c r="C85" t="s">
-        <v>366</v>
-      </c>
-      <c r="D85" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+      <c r="C87" t="s">
+        <v>367</v>
+      </c>
+      <c r="D87" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B88" s="2">
         <v>1303223049</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>112</v>
       </c>
-      <c r="D86" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+      <c r="D88" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>271</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B89" s="2">
         <v>1305220010</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>295</v>
       </c>
-      <c r="D87" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>422</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="D89" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>423</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1302213043</v>
+      </c>
+      <c r="C90" t="s">
         <v>429</v>
       </c>
-      <c r="D88" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+      <c r="D90" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>141</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B91" s="2">
         <v>1301223051</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>190</v>
       </c>
-      <c r="D89" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+      <c r="D91" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>436</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B92" s="2">
         <v>1301223216</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>455</v>
       </c>
-      <c r="D90" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+      <c r="D92" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>142</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B93" s="2">
         <v>1301223313</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" t="s">
         <v>191</v>
       </c>
-      <c r="D91" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+      <c r="D93" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B94" s="2">
         <v>1301223113</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>114</v>
       </c>
-      <c r="D92" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+      <c r="D94" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>225</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B95" s="2">
         <v>103012300424</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>245</v>
       </c>
-      <c r="D93" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
-        <v>399</v>
-      </c>
-      <c r="B94" s="2">
+      <c r="D95" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>400</v>
+      </c>
+      <c r="B96" s="2">
         <v>1301223115</v>
       </c>
-      <c r="C94" t="s">
-        <v>411</v>
-      </c>
-      <c r="D94" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
+      <c r="C96" t="s">
+        <v>412</v>
+      </c>
+      <c r="D96" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>437</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B97" s="2">
         <v>1301223363</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C97" t="s">
         <v>456</v>
       </c>
-      <c r="D95" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
+      <c r="D97" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B98" s="2">
         <v>1301223295</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C98" t="s">
         <v>192</v>
       </c>
-      <c r="D96" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+      <c r="D98" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>144</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B99" s="2">
         <v>1301223015</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>193</v>
       </c>
-      <c r="D97" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>400</v>
-      </c>
-      <c r="B98" s="2">
+      <c r="D99" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>401</v>
+      </c>
+      <c r="B100" s="2">
         <v>1302200119</v>
       </c>
-      <c r="C98" t="s">
-        <v>412</v>
-      </c>
-      <c r="D98" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>401</v>
-      </c>
-      <c r="B99" s="2">
+      <c r="C100" t="s">
+        <v>413</v>
+      </c>
+      <c r="D100" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>402</v>
+      </c>
+      <c r="B101" s="2">
         <v>1301210553</v>
       </c>
-      <c r="C99" t="s">
-        <v>413</v>
-      </c>
-      <c r="D99" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
+      <c r="C101" t="s">
+        <v>414</v>
+      </c>
+      <c r="D101" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>145</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B102" s="2">
         <v>1301213399</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>194</v>
       </c>
-      <c r="D100" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
+      <c r="D102" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>226</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B103" s="2">
         <v>1302220009</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C103" t="s">
         <v>246</v>
       </c>
-      <c r="D101" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
+      <c r="D103" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>227</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B104" s="2">
         <v>1302223116</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C104" t="s">
         <v>247</v>
       </c>
-      <c r="D102" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
+      <c r="D104" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>146</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B105" s="2">
         <v>1301220325</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C105" t="s">
         <v>195</v>
       </c>
-      <c r="D103" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+      <c r="D105" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>115</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B106" s="2">
         <v>1303220140</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C106" t="s">
         <v>116</v>
       </c>
-      <c r="D104" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
+      <c r="D106" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>342</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B107" s="2">
         <v>1301213378</v>
       </c>
-      <c r="C105" t="s">
-        <v>367</v>
-      </c>
-      <c r="D105" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
+      <c r="C107" t="s">
+        <v>368</v>
+      </c>
+      <c r="D107" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>228</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B108" s="2">
         <v>10312300067</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C108" t="s">
         <v>248</v>
       </c>
-      <c r="D106" s="2">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
+      <c r="D108" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>272</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B109" s="2">
         <v>1301223396</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C109" t="s">
         <v>296</v>
       </c>
-      <c r="D107" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
+      <c r="D109" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>273</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B110" s="2">
         <v>1301213157</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C110" t="s">
         <v>297</v>
       </c>
-      <c r="D108" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
+      <c r="D110" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>147</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B111" s="2">
         <v>1301223054</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C111" t="s">
         <v>196</v>
       </c>
-      <c r="D109" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>402</v>
-      </c>
-      <c r="B110" s="2">
+      <c r="D111" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>403</v>
+      </c>
+      <c r="B112" s="2">
         <v>1305210077</v>
       </c>
-      <c r="C110" t="s">
-        <v>414</v>
-      </c>
-      <c r="D110" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
+      <c r="C112" t="s">
+        <v>415</v>
+      </c>
+      <c r="D112" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>311</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B113" s="2">
         <v>1302223099</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" t="s">
         <v>321</v>
       </c>
-      <c r="D111" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>380</v>
-      </c>
-      <c r="B112" s="2">
+      <c r="D113" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>381</v>
+      </c>
+      <c r="B114" s="2">
         <v>1302213109</v>
       </c>
-      <c r="C112" t="s">
-        <v>389</v>
-      </c>
-      <c r="D112" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
+      <c r="C114" t="s">
+        <v>390</v>
+      </c>
+      <c r="D114" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>229</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B115" s="2">
         <v>1302223134</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C115" t="s">
         <v>249</v>
       </c>
-      <c r="D113" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
+      <c r="D115" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>76</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B116" s="2">
         <v>1302210006</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C116" t="s">
         <v>97</v>
       </c>
-      <c r="D114" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+      <c r="D116" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>77</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B117" s="2">
         <v>1302223032</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C117" t="s">
         <v>98</v>
       </c>
-      <c r="D115" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
+      <c r="D117" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>148</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B118" s="2">
         <v>1301223077</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C118" t="s">
         <v>197</v>
       </c>
-      <c r="D116" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
+      <c r="D118" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>438</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B119" s="2">
         <v>1301223229</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C119" t="s">
         <v>457</v>
       </c>
-      <c r="D117" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
+      <c r="D119" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>149</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B120" s="2">
         <v>1301223258</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C120" t="s">
         <v>198</v>
       </c>
-      <c r="D118" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
-        <v>403</v>
-      </c>
-      <c r="B119" s="2">
+      <c r="D120" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>404</v>
+      </c>
+      <c r="B121" s="2">
         <v>1305213032</v>
       </c>
-      <c r="C119" t="s">
-        <v>415</v>
-      </c>
-      <c r="D119" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
+      <c r="C121" t="s">
+        <v>416</v>
+      </c>
+      <c r="D121" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>150</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B122" s="2">
         <v>1305223043</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C122" t="s">
         <v>199</v>
       </c>
-      <c r="D120" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
+      <c r="D122" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>230</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B123" s="2">
         <v>1302223007</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C123" t="s">
         <v>250</v>
       </c>
-      <c r="D121" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
+      <c r="D123" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
         <v>231</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B124" s="2">
         <v>103012300116</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C124" t="s">
         <v>251</v>
       </c>
-      <c r="D122" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
+      <c r="D124" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>312</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B125" s="2">
         <v>1302223050</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C125" t="s">
         <v>322</v>
       </c>
-      <c r="D123" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
+      <c r="D125" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>151</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B126" s="2">
         <v>1301223214</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C126" t="s">
         <v>200</v>
       </c>
-      <c r="D124" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
+      <c r="D126" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>168</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B127" s="2">
         <v>1302210130</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C127" t="s">
         <v>217</v>
       </c>
-      <c r="D125" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
+      <c r="D127" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>274</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B128" s="2">
         <v>1301213488</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C128" t="s">
         <v>298</v>
       </c>
-      <c r="D126" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
+      <c r="D128" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>439</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B129" s="2">
         <v>1301213172</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C129" t="s">
         <v>458</v>
       </c>
-      <c r="D127" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
+      <c r="D129" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>275</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B130" s="2">
         <v>1301224059</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C130" t="s">
         <v>299</v>
       </c>
-      <c r="D128" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
+      <c r="D130" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>117</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B131" s="2">
         <v>1301223202</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C131" t="s">
         <v>118</v>
       </c>
-      <c r="D129" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
+      <c r="D131" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>152</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B132" s="2">
         <v>1301223208</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C132" t="s">
         <v>201</v>
       </c>
-      <c r="D130" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
+      <c r="D132" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
         <v>78</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B133" s="2">
         <v>1302213089</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C133" t="s">
         <v>99</v>
       </c>
-      <c r="D131" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A132" t="s">
+      <c r="D133" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>440</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B134" s="2">
         <v>1302213067</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C134" t="s">
         <v>459</v>
       </c>
-      <c r="D132" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
+      <c r="D134" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
         <v>313</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B135" s="2">
         <v>103022330008</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C135" t="s">
         <v>323</v>
       </c>
-      <c r="D133" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
-        <v>423</v>
-      </c>
-      <c r="B134" s="2">
+      <c r="D135" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>424</v>
+      </c>
+      <c r="B136" s="2">
         <v>1302210049</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C136" t="s">
         <v>430</v>
       </c>
-      <c r="D134" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
+      <c r="D136" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>169</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B137" s="2">
         <v>1301183340</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C137" t="s">
         <v>218</v>
       </c>
-      <c r="D135" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
+      <c r="D137" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>232</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B138" s="2">
         <v>1301223195</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C138" t="s">
         <v>252</v>
       </c>
-      <c r="D136" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
+      <c r="D138" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>343</v>
+      </c>
+      <c r="B139" s="2">
+        <v>1301223195</v>
+      </c>
+      <c r="C139" t="s">
+        <v>252</v>
+      </c>
+      <c r="D139" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B140" s="2">
         <v>1305210069</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C140" t="s">
         <v>300</v>
       </c>
-      <c r="D137" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
-        <v>343</v>
-      </c>
-      <c r="B138" s="2">
-        <v>1303223061</v>
-      </c>
-      <c r="C138" t="s">
-        <v>368</v>
-      </c>
-      <c r="D138" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A139" t="s">
-        <v>441</v>
-      </c>
-      <c r="B139" s="2">
-        <v>1301220504</v>
-      </c>
-      <c r="C139" t="s">
-        <v>460</v>
-      </c>
-      <c r="D139" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A140" t="s">
-        <v>233</v>
-      </c>
-      <c r="B140" s="2">
-        <v>1303223141</v>
-      </c>
-      <c r="C140" t="s">
-        <v>253</v>
-      </c>
       <c r="D140" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>344</v>
       </c>
       <c r="B141" s="2">
-        <v>1301213430</v>
+        <v>1303223061</v>
       </c>
       <c r="C141" t="s">
         <v>369</v>
       </c>
       <c r="D141" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>441</v>
+      </c>
+      <c r="B142" s="2">
+        <v>1301220504</v>
+      </c>
+      <c r="C142" t="s">
+        <v>460</v>
+      </c>
+      <c r="D142" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>233</v>
+      </c>
+      <c r="B143" s="2">
+        <v>1303223141</v>
+      </c>
+      <c r="C143" t="s">
+        <v>253</v>
+      </c>
+      <c r="D143" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>345</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1301213430</v>
+      </c>
+      <c r="C144" t="s">
+        <v>370</v>
+      </c>
+      <c r="D144" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>153</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B145" s="2">
         <v>103012300248</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C145" t="s">
         <v>202</v>
       </c>
-      <c r="D142" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
+      <c r="D145" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>277</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B146" s="2">
         <v>1305223046</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C146" t="s">
         <v>301</v>
       </c>
-      <c r="D143" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
+      <c r="D146" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>442</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B147" s="2">
         <v>1301220232</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C147" t="s">
         <v>461</v>
       </c>
-      <c r="D144" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
+      <c r="D147" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>79</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B148" s="2">
         <v>1302220037</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C148" t="s">
         <v>100</v>
       </c>
-      <c r="D145" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
+      <c r="D148" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>278</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B149" s="2">
         <v>1301213259</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C149" t="s">
         <v>302</v>
       </c>
-      <c r="D146" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
-        <v>345</v>
-      </c>
-      <c r="B147" s="2">
+      <c r="D149" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>346</v>
+      </c>
+      <c r="B150" s="2">
         <v>1301213156</v>
       </c>
-      <c r="C147" t="s">
-        <v>370</v>
-      </c>
-      <c r="D147" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A148" t="s">
+      <c r="C150" t="s">
+        <v>371</v>
+      </c>
+      <c r="D150" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>234</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B151" s="2">
         <v>1303220115</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C151" t="s">
         <v>254</v>
       </c>
-      <c r="D148" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A149" t="s">
-        <v>381</v>
-      </c>
-      <c r="B149" s="2">
+      <c r="D151" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>382</v>
+      </c>
+      <c r="B152" s="2">
         <v>1302223019</v>
       </c>
-      <c r="C149" t="s">
-        <v>390</v>
-      </c>
-      <c r="D149" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
+      <c r="C152" t="s">
+        <v>391</v>
+      </c>
+      <c r="D152" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>443</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B153" s="2">
         <v>1301223289</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C153" t="s">
         <v>462</v>
       </c>
-      <c r="D150" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
+      <c r="D153" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>154</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B154" s="2">
         <v>103012300129</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C154" t="s">
         <v>203</v>
       </c>
-      <c r="D151" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A152" t="s">
+      <c r="D154" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>279</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B155" s="2">
         <v>1305210071</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C155" t="s">
         <v>303</v>
       </c>
-      <c r="D152" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
+      <c r="D155" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>444</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B156" s="2">
         <v>1303213050</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C156" t="s">
         <v>463</v>
       </c>
-      <c r="D153" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
+      <c r="D156" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B157" s="2">
         <v>103052300074</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C157" t="s">
         <v>204</v>
       </c>
-      <c r="D154" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
-        <v>346</v>
-      </c>
-      <c r="B155" s="2">
+      <c r="D157" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>347</v>
+      </c>
+      <c r="B158" s="2">
         <v>1301223274</v>
       </c>
-      <c r="C155" t="s">
-        <v>371</v>
-      </c>
-      <c r="D155" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
+      <c r="C158" t="s">
+        <v>372</v>
+      </c>
+      <c r="D158" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>235</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B159" s="2">
         <v>1302220065</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C159" t="s">
         <v>255</v>
       </c>
-      <c r="D156" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
+      <c r="D159" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>80</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B160" s="2">
         <v>1302223153</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C160" t="s">
         <v>101</v>
       </c>
-      <c r="D157" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
-        <v>382</v>
-      </c>
-      <c r="B158" s="2">
+      <c r="D160" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>383</v>
+      </c>
+      <c r="B161" s="2">
         <v>1302223025</v>
       </c>
-      <c r="C158" t="s">
-        <v>391</v>
-      </c>
-      <c r="D158" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
+      <c r="C161" t="s">
+        <v>392</v>
+      </c>
+      <c r="D161" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B162" s="2">
         <v>103022300014</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C162" t="s">
         <v>324</v>
       </c>
-      <c r="D159" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
-        <v>383</v>
-      </c>
-      <c r="B160" s="2">
+      <c r="D162" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>384</v>
+      </c>
+      <c r="B163" s="2">
         <v>1302210074</v>
       </c>
-      <c r="C160" t="s">
-        <v>392</v>
-      </c>
-      <c r="D160" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
+      <c r="C163" t="s">
+        <v>393</v>
+      </c>
+      <c r="D163" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>445</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B164" s="2">
         <v>1301223327</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C164" t="s">
         <v>464</v>
       </c>
-      <c r="D161" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
+      <c r="D164" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>156</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B165" s="2">
         <v>103022330096</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C165" t="s">
         <v>205</v>
       </c>
-      <c r="D162" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
-        <v>404</v>
-      </c>
-      <c r="B163" s="2">
+      <c r="D165" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>405</v>
+      </c>
+      <c r="B166" s="2">
         <v>1301223425</v>
       </c>
-      <c r="C163" t="s">
-        <v>416</v>
-      </c>
-      <c r="D163" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
-        <v>405</v>
-      </c>
-      <c r="B164" s="2">
+      <c r="C166" t="s">
+        <v>417</v>
+      </c>
+      <c r="D166" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>406</v>
+      </c>
+      <c r="B167" s="2">
         <v>1303220006</v>
       </c>
-      <c r="C164" t="s">
-        <v>417</v>
-      </c>
-      <c r="D164" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
-        <v>347</v>
-      </c>
-      <c r="B165" s="2">
+      <c r="C167" t="s">
+        <v>418</v>
+      </c>
+      <c r="D167" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>348</v>
+      </c>
+      <c r="B168" s="2">
         <v>1301213036</v>
       </c>
-      <c r="C165" t="s">
-        <v>372</v>
-      </c>
-      <c r="D165" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
+      <c r="C168" t="s">
+        <v>373</v>
+      </c>
+      <c r="D168" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>315</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B169" s="2">
         <v>1302220093</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C169" t="s">
         <v>325</v>
       </c>
-      <c r="D166" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
-        <v>348</v>
-      </c>
-      <c r="B167" s="2">
+      <c r="D169" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>349</v>
+      </c>
+      <c r="B170" s="2">
         <v>1303210088</v>
       </c>
-      <c r="C167" t="s">
-        <v>373</v>
-      </c>
-      <c r="D167" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
+      <c r="C170" t="s">
+        <v>374</v>
+      </c>
+      <c r="D170" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>446</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B171" s="2">
         <v>1305223012</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C171" t="s">
         <v>465</v>
       </c>
-      <c r="D168" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
+      <c r="D171" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>447</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B172" s="2">
         <v>1301223432</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C172" t="s">
         <v>466</v>
       </c>
-      <c r="D169" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
+      <c r="D172" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>280</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B173" s="2">
         <v>1301213042</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C173" t="s">
         <v>304</v>
       </c>
-      <c r="D170" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
+      <c r="D173" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>81</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B174" s="2">
         <v>1302223028</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C174" t="s">
         <v>102</v>
       </c>
-      <c r="D171" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
-        <v>384</v>
-      </c>
-      <c r="B172" s="2">
+      <c r="D174" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>385</v>
+      </c>
+      <c r="B175" s="2">
         <v>1302210028</v>
       </c>
-      <c r="C172" t="s">
-        <v>393</v>
-      </c>
-      <c r="D172" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
+      <c r="C175" t="s">
+        <v>394</v>
+      </c>
+      <c r="D175" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>157</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B176" s="2">
         <v>1301220413</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C176" t="s">
         <v>206</v>
       </c>
-      <c r="D173" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
-        <v>385</v>
-      </c>
-      <c r="B174" s="2">
+      <c r="D176" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>386</v>
+      </c>
+      <c r="B177" s="2">
         <v>1302210097</v>
       </c>
-      <c r="C174" t="s">
-        <v>394</v>
-      </c>
-      <c r="D174" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
+      <c r="C177" t="s">
+        <v>395</v>
+      </c>
+      <c r="D177" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B178" s="2">
         <v>1305220062</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C178" t="s">
         <v>120</v>
       </c>
-      <c r="D175" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
+      <c r="D178" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>448</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B179" s="2">
         <v>1301223242</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C179" t="s">
         <v>467</v>
       </c>
-      <c r="D176" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
+      <c r="D179" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>158</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B180" s="2">
         <v>103012330225</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C180" t="s">
         <v>207</v>
       </c>
-      <c r="D177" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
-        <v>349</v>
-      </c>
-      <c r="B178" s="2">
+      <c r="D180" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>350</v>
+      </c>
+      <c r="B181" s="2">
         <v>1301223205</v>
       </c>
-      <c r="C178" t="s">
-        <v>374</v>
-      </c>
-      <c r="D178" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
-        <v>406</v>
-      </c>
-      <c r="B179" s="2">
+      <c r="C181" t="s">
+        <v>375</v>
+      </c>
+      <c r="D181" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>407</v>
+      </c>
+      <c r="B182" s="2">
         <v>1305220029</v>
       </c>
-      <c r="C179" t="s">
-        <v>418</v>
-      </c>
-      <c r="D179" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
+      <c r="C182" t="s">
+        <v>419</v>
+      </c>
+      <c r="D182" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>159</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B183" s="2">
         <v>103052300022</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C183" t="s">
         <v>208</v>
       </c>
-      <c r="D180" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
+      <c r="D183" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>236</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B184" s="2">
         <v>20301232003</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C184" t="s">
         <v>256</v>
       </c>
-      <c r="D181" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A182" t="s">
+      <c r="D184" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>449</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B185" s="2">
         <v>1301223251</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C185" t="s">
         <v>468</v>
       </c>
-      <c r="D182" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A183" t="s">
-        <v>424</v>
-      </c>
-      <c r="B183" s="2">
+      <c r="D185" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>425</v>
+      </c>
+      <c r="B186" s="2">
         <v>1302210106</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C186" t="s">
         <v>431</v>
       </c>
-      <c r="D183" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A184" t="s">
+      <c r="D186" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>160</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B187" s="2">
         <v>1302210084</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C187" t="s">
         <v>209</v>
       </c>
-      <c r="D184" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A185" t="s">
+      <c r="D187" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>161</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B188" s="2">
         <v>1301223465</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C188" t="s">
         <v>210</v>
       </c>
-      <c r="D185" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
+      <c r="D188" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>82</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B189" s="2">
         <v>1302223041</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C189" t="s">
         <v>103</v>
       </c>
-      <c r="D186" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A187" t="s">
+      <c r="D189" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>83</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B190" s="2">
         <v>1302220112</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C190" t="s">
         <v>104</v>
       </c>
-      <c r="D187" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A188" t="s">
+      <c r="D190" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>162</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B191" s="2">
         <v>1305223033</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C191" t="s">
         <v>211</v>
       </c>
-      <c r="D188" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A189" t="s">
+      <c r="D191" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>237</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B192" s="2">
         <v>1302210057</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C192" t="s">
         <v>257</v>
       </c>
-      <c r="D189" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A190" t="s">
+      <c r="D192" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>450</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B193" s="2">
         <v>1305223094</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C193" t="s">
         <v>469</v>
       </c>
-      <c r="D190" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A191" t="s">
+      <c r="D193" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>163</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B194" s="2">
         <v>1301223410</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C194" t="s">
         <v>212</v>
       </c>
-      <c r="D191" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A192" t="s">
+      <c r="D194" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>281</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B195" s="2">
         <v>1301223218</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C195" t="s">
         <v>305</v>
       </c>
-      <c r="D192" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A193" t="s">
+      <c r="D195" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>164</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B196" s="2">
         <v>1301223020</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C196" t="s">
         <v>213</v>
       </c>
-      <c r="D193" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A194" t="s">
+      <c r="D196" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>165</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B197" s="2">
         <v>103012300100</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C197" t="s">
         <v>214</v>
       </c>
-      <c r="D194" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A195" t="s">
+      <c r="D197" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>238</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B198" s="2">
         <v>1303220142</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C198" t="s">
         <v>258</v>
       </c>
-      <c r="D195" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A196" t="s">
+      <c r="D198" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>84</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B199" s="2">
         <v>1302213050</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C199" t="s">
         <v>105</v>
       </c>
-      <c r="D196" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A197" t="s">
+      <c r="D199" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>316</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B200" s="2">
         <v>1302220101</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C200" t="s">
         <v>326</v>
       </c>
-      <c r="D197" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A198" t="s">
+      <c r="D200" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>166</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B201" s="2">
         <v>103052330068</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C201" t="s">
         <v>215</v>
       </c>
-      <c r="D198" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A199" t="s">
+      <c r="D201" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>167</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B202" s="2">
         <v>1301223430</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C202" t="s">
         <v>216</v>
       </c>
-      <c r="D199" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A200" t="s">
-        <v>350</v>
-      </c>
-      <c r="B200" s="2">
+      <c r="D202" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>351</v>
+      </c>
+      <c r="B203" s="2">
         <v>1301223129</v>
       </c>
-      <c r="C200" t="s">
-        <v>375</v>
-      </c>
-      <c r="D200" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A201" t="s">
-        <v>351</v>
-      </c>
-      <c r="B201" s="2">
+      <c r="C203" t="s">
+        <v>376</v>
+      </c>
+      <c r="D203" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>352</v>
+      </c>
+      <c r="B204" s="2">
         <v>1301223225</v>
       </c>
-      <c r="C201" t="s">
-        <v>376</v>
-      </c>
-      <c r="D201" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A202" t="s">
+      <c r="C204" t="s">
+        <v>377</v>
+      </c>
+      <c r="D204" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>282</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B205" s="2">
         <v>1301223172</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C205" t="s">
         <v>306</v>
       </c>
-      <c r="D202" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A203" t="s">
+      <c r="D205" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>85</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B206" s="2">
         <v>1302210036</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C206" t="s">
         <v>106</v>
       </c>
-      <c r="D203" s="2">
-        <v>2021</v>
+      <c r="D206" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5454,14 +5482,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.19921875" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5475,7 +5503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -5489,7 +5517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5503,7 +5531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5517,7 +5545,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5531,7 +5559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5545,7 +5573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5559,7 +5587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5573,7 +5601,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -5587,7 +5615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5601,7 +5629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -5615,7 +5643,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -5629,7 +5657,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -5643,7 +5671,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -5657,7 +5685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -5671,7 +5699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5685,7 +5713,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -5699,7 +5727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5713,7 +5741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -5727,7 +5755,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -5741,7 +5769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -5755,7 +5783,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -5769,7 +5797,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5783,7 +5811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -5809,23 +5837,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4636D798-6042-4261-86DC-AD2CFC208682}">
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51:H53"/>
-    </sheetView>
+    <sheetView showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -5851,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -5877,7 +5903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>474</v>
       </c>
@@ -5903,7 +5929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -5929,7 +5955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>476</v>
       </c>
@@ -5955,7 +5981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>487</v>
       </c>
@@ -5981,7 +6007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>492</v>
       </c>
@@ -6004,10 +6030,10 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>496</v>
       </c>
@@ -6033,7 +6059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>497</v>
       </c>
@@ -6059,7 +6085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>498</v>
       </c>
@@ -6085,7 +6111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>499</v>
       </c>
@@ -6111,7 +6137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>500</v>
       </c>
@@ -6137,7 +6163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>501</v>
       </c>
@@ -6163,7 +6189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>502</v>
       </c>
@@ -6189,7 +6215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>503</v>
       </c>
@@ -6215,7 +6241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>504</v>
       </c>
@@ -6241,7 +6267,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>505</v>
       </c>
@@ -6267,7 +6293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>506</v>
       </c>
@@ -6293,7 +6319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>507</v>
       </c>
@@ -6319,7 +6345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>508</v>
       </c>
@@ -6345,7 +6371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>509</v>
       </c>
@@ -6371,7 +6397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>510</v>
       </c>
@@ -6397,7 +6423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>511</v>
       </c>
@@ -6423,7 +6449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>512</v>
       </c>
@@ -6449,7 +6475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>513</v>
       </c>
@@ -6475,7 +6501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>514</v>
       </c>
@@ -6501,7 +6527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>515</v>
       </c>
@@ -6527,7 +6553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>516</v>
       </c>
@@ -6553,7 +6579,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>517</v>
       </c>
@@ -6579,7 +6605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>518</v>
       </c>
@@ -6599,7 +6625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>519</v>
       </c>
@@ -6619,7 +6645,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>520</v>
       </c>
@@ -6639,7 +6665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>521</v>
       </c>
@@ -6659,7 +6685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>538</v>
       </c>
@@ -6685,7 +6711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>476</v>
       </c>
@@ -6711,7 +6737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>539</v>
       </c>
@@ -6737,7 +6763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>540</v>
       </c>
@@ -6763,7 +6789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>549</v>
       </c>
@@ -6789,7 +6815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>550</v>
       </c>
@@ -6815,7 +6841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>551</v>
       </c>
@@ -6841,7 +6867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>552</v>
       </c>
@@ -6867,7 +6893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>553</v>
       </c>
@@ -6893,7 +6919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>554</v>
       </c>
@@ -6919,7 +6945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>555</v>
       </c>
@@ -6945,7 +6971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>556</v>
       </c>
@@ -6971,7 +6997,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>557</v>
       </c>
@@ -6997,7 +7023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>558</v>
       </c>
@@ -7023,7 +7049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>559</v>
       </c>
@@ -7049,7 +7075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>560</v>
       </c>
@@ -7075,7 +7101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>561</v>
       </c>
@@ -7101,7 +7127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>562</v>
       </c>
@@ -7127,7 +7153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>570</v>
       </c>
@@ -7147,7 +7173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>571</v>
       </c>
@@ -7167,7 +7193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>572</v>
       </c>
@@ -7193,7 +7219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>573</v>
       </c>
@@ -7219,7 +7245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>574</v>
       </c>
@@ -7245,7 +7271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>575</v>
       </c>
@@ -7271,7 +7297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>576</v>
       </c>
@@ -7297,7 +7323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>578</v>
       </c>
@@ -7323,7 +7349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>579</v>
       </c>
@@ -7349,7 +7375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>580</v>
       </c>
@@ -7375,7 +7401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>581</v>
       </c>
@@ -7401,7 +7427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>582</v>
       </c>
@@ -7427,7 +7453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>583</v>
       </c>
@@ -7453,7 +7479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>584</v>
       </c>
@@ -7479,7 +7505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>585</v>
       </c>
@@ -7505,7 +7531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>586</v>
       </c>
@@ -7531,7 +7557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>587</v>
       </c>
@@ -7557,7 +7583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>588</v>
       </c>
@@ -7583,7 +7609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>589</v>
       </c>
@@ -7609,7 +7635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>590</v>
       </c>
@@ -7635,7 +7661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>591</v>
       </c>
@@ -7661,7 +7687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>592</v>
       </c>
@@ -7687,7 +7713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>593</v>
       </c>
@@ -7713,7 +7739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>474</v>
       </c>
@@ -7739,7 +7765,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>473</v>
       </c>
@@ -7765,7 +7791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>475</v>
       </c>
@@ -7791,7 +7817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>476</v>
       </c>
@@ -7817,7 +7843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>613</v>
       </c>
@@ -7843,7 +7869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>614</v>
       </c>
@@ -7869,7 +7895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>615</v>
       </c>
@@ -7895,7 +7921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>616</v>
       </c>
@@ -7921,7 +7947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>617</v>
       </c>
@@ -7947,7 +7973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>618</v>
       </c>
@@ -7973,7 +7999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>619</v>
       </c>
@@ -7999,7 +8025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>620</v>
       </c>
@@ -8025,7 +8051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>583</v>
       </c>
@@ -8051,7 +8077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>621</v>
       </c>
@@ -8077,7 +8103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>622</v>
       </c>
@@ -8103,7 +8129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>623</v>
       </c>
@@ -8129,7 +8155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>590</v>
       </c>
@@ -8155,7 +8181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>624</v>
       </c>
@@ -8181,7 +8207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>591</v>
       </c>
@@ -8204,7 +8230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>474</v>
       </c>
@@ -8230,7 +8256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>475</v>
       </c>
@@ -8256,7 +8282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>476</v>
       </c>
@@ -8282,7 +8308,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>473</v>
       </c>
@@ -8308,7 +8334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>637</v>
       </c>
@@ -8334,7 +8360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>638</v>
       </c>
@@ -8360,7 +8386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>639</v>
       </c>
@@ -8386,7 +8412,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>640</v>
       </c>
@@ -8412,7 +8438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>641</v>
       </c>
@@ -8438,7 +8464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>642</v>
       </c>
@@ -8464,7 +8490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>643</v>
       </c>
@@ -8490,7 +8516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>644</v>
       </c>
@@ -8516,7 +8542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>645</v>
       </c>
@@ -8542,7 +8568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>646</v>
       </c>
@@ -8568,7 +8594,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>647</v>
       </c>
@@ -8594,7 +8620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>648</v>
       </c>
@@ -8620,7 +8646,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>649</v>
       </c>
@@ -8646,7 +8672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>650</v>
       </c>
@@ -8672,7 +8698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>651</v>
       </c>
@@ -8698,7 +8724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>652</v>
       </c>
@@ -8724,7 +8750,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>653</v>
       </c>
@@ -8750,7 +8776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>561</v>
       </c>
@@ -8776,7 +8802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>654</v>
       </c>
@@ -8802,7 +8828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>655</v>
       </c>
@@ -8828,7 +8854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>576</v>
       </c>
@@ -8870,13 +8896,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -8884,7 +8910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -8892,7 +8918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -8900,7 +8926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -8908,7 +8934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -8916,7 +8942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -8924,7 +8950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -8932,7 +8958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -8940,7 +8966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -8948,7 +8974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -8956,7 +8982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -8964,7 +8990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -8972,7 +8998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -8980,7 +9006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -8988,7 +9014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -8996,7 +9022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -9004,7 +9030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -9012,7 +9038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -9020,7 +9046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -9028,7 +9054,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -9036,7 +9062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -9044,7 +9070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -9052,7 +9078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -9060,7 +9086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -9068,7 +9094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -9076,7 +9102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -9084,7 +9110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -9092,7 +9118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -9100,7 +9126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -9108,7 +9134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -9116,7 +9142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -9124,7 +9150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -9132,7 +9158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -9140,7 +9166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -9148,7 +9174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -9156,7 +9182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -9164,7 +9190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>170</v>
       </c>
@@ -9172,7 +9198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -9180,7 +9206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>171</v>
       </c>
@@ -9188,7 +9214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -9196,7 +9222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>173</v>
       </c>
@@ -9204,7 +9230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>174</v>
       </c>
@@ -9212,7 +9238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -9220,7 +9246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -9228,7 +9254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -9236,7 +9262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>177</v>
       </c>
@@ -9244,7 +9270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -9252,7 +9278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -9260,7 +9286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -9268,7 +9294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>180</v>
       </c>
@@ -9276,7 +9302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -9284,7 +9310,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>182</v>
       </c>
@@ -9292,7 +9318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>183</v>
       </c>
@@ -9300,7 +9326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>184</v>
       </c>
@@ -9308,7 +9334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>185</v>
       </c>
@@ -9316,7 +9342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>186</v>
       </c>
@@ -9324,7 +9350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>187</v>
       </c>
@@ -9332,7 +9358,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>188</v>
       </c>
@@ -9340,7 +9366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>189</v>
       </c>
@@ -9348,7 +9374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -9356,7 +9382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>191</v>
       </c>
@@ -9364,7 +9390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -9372,7 +9398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>192</v>
       </c>
@@ -9380,7 +9406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -9388,7 +9414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>194</v>
       </c>
@@ -9396,7 +9422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -9404,7 +9430,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>196</v>
       </c>
@@ -9412,7 +9438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>197</v>
       </c>
@@ -9420,7 +9446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>198</v>
       </c>
@@ -9428,7 +9454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>199</v>
       </c>
@@ -9436,7 +9462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>200</v>
       </c>
@@ -9444,7 +9470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>201</v>
       </c>
@@ -9452,7 +9478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>202</v>
       </c>
@@ -9460,7 +9486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>203</v>
       </c>
@@ -9468,7 +9494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>204</v>
       </c>
@@ -9476,7 +9502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -9484,7 +9510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -9492,7 +9518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>206</v>
       </c>
@@ -9500,7 +9526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>120</v>
       </c>
@@ -9508,7 +9534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>207</v>
       </c>
@@ -9516,7 +9542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>208</v>
       </c>
@@ -9524,7 +9550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>209</v>
       </c>
@@ -9532,7 +9558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>210</v>
       </c>
@@ -9540,7 +9566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>211</v>
       </c>
@@ -9548,7 +9574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>212</v>
       </c>
@@ -9556,7 +9582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>213</v>
       </c>
@@ -9564,7 +9590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>214</v>
       </c>
@@ -9572,7 +9598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>215</v>
       </c>
@@ -9580,7 +9606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>216</v>
       </c>
@@ -9588,7 +9614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>217</v>
       </c>
@@ -9596,7 +9622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>218</v>
       </c>
@@ -9604,7 +9630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>239</v>
       </c>
@@ -9612,7 +9638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -9620,7 +9646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>240</v>
       </c>
@@ -9628,7 +9654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>241</v>
       </c>
@@ -9636,7 +9662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>242</v>
       </c>
@@ -9644,7 +9670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>243</v>
       </c>
@@ -9652,7 +9678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>244</v>
       </c>
@@ -9660,7 +9686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>245</v>
       </c>
@@ -9668,7 +9694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>246</v>
       </c>
@@ -9676,7 +9702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>247</v>
       </c>
@@ -9684,7 +9710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -9692,7 +9718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>248</v>
       </c>
@@ -9700,7 +9726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>249</v>
       </c>
@@ -9708,7 +9734,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>250</v>
       </c>
@@ -9716,7 +9742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>251</v>
       </c>
@@ -9724,7 +9750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>252</v>
       </c>
@@ -9732,7 +9758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>253</v>
       </c>
@@ -9740,7 +9766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>254</v>
       </c>
@@ -9748,7 +9774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>255</v>
       </c>
@@ -9756,7 +9782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>256</v>
       </c>
@@ -9764,7 +9790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>257</v>
       </c>
@@ -9772,7 +9798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>258</v>
       </c>
@@ -9780,7 +9806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>283</v>
       </c>
@@ -9788,7 +9814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>284</v>
       </c>
@@ -9796,7 +9822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>285</v>
       </c>
@@ -9804,7 +9830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>286</v>
       </c>
@@ -9812,7 +9838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>287</v>
       </c>
@@ -9820,7 +9846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>288</v>
       </c>
@@ -9828,7 +9854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>173</v>
       </c>
@@ -9836,7 +9862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>176</v>
       </c>
@@ -9844,7 +9870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>289</v>
       </c>
@@ -9852,7 +9878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>290</v>
       </c>
@@ -9860,7 +9886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>291</v>
       </c>
@@ -9868,7 +9894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>292</v>
       </c>
@@ -9876,7 +9902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>110</v>
       </c>
@@ -9884,7 +9910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>180</v>
       </c>
@@ -9892,7 +9918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>181</v>
       </c>
@@ -9900,7 +9926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>183</v>
       </c>
@@ -9908,7 +9934,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>293</v>
       </c>
@@ -9916,7 +9942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>294</v>
       </c>
@@ -9924,7 +9950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>189</v>
       </c>
@@ -9932,7 +9958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>295</v>
       </c>
@@ -9940,7 +9966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>193</v>
       </c>
@@ -9948,7 +9974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>296</v>
       </c>
@@ -9956,7 +9982,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>297</v>
       </c>
@@ -9964,7 +9990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>298</v>
       </c>
@@ -9972,7 +9998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>299</v>
       </c>
@@ -9980,7 +10006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>300</v>
       </c>
@@ -9988,7 +10014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>301</v>
       </c>
@@ -9996,7 +10022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>302</v>
       </c>
@@ -10004,7 +10030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>303</v>
       </c>
@@ -10012,7 +10038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>304</v>
       </c>
@@ -10020,7 +10046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>120</v>
       </c>
@@ -10028,7 +10054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>210</v>
       </c>
@@ -10036,7 +10062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>211</v>
       </c>
@@ -10044,7 +10070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>212</v>
       </c>
@@ -10052,7 +10078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>305</v>
       </c>
@@ -10060,7 +10086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>213</v>
       </c>
@@ -10068,7 +10094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>306</v>
       </c>
@@ -10076,7 +10102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>317</v>
       </c>
@@ -10084,7 +10110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -10092,7 +10118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>318</v>
       </c>
@@ -10100,7 +10126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>319</v>
       </c>
@@ -10108,7 +10134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>92</v>
       </c>
@@ -10116,7 +10142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>95</v>
       </c>
@@ -10124,7 +10150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>242</v>
       </c>
@@ -10132,7 +10158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>320</v>
       </c>
@@ -10140,7 +10166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>194</v>
       </c>
@@ -10148,7 +10174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>321</v>
       </c>
@@ -10156,7 +10182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>249</v>
       </c>
@@ -10164,7 +10190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -10172,7 +10198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>323</v>
       </c>
@@ -10180,7 +10206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>100</v>
       </c>
@@ -10188,7 +10214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>254</v>
       </c>
@@ -10196,7 +10222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>101</v>
       </c>
@@ -10204,7 +10230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>324</v>
       </c>
@@ -10212,7 +10238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>325</v>
       </c>
@@ -10220,7 +10246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>326</v>
       </c>
@@ -10228,127 +10254,127 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B170" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B171" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B172" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B173" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B174" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B175" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B176" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B177" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B178" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B179" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B180" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B181" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B182" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B183" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B184" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>112</v>
       </c>
@@ -10356,15 +10382,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B186" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>252</v>
       </c>
@@ -10372,15 +10398,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B188" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>253</v>
       </c>
@@ -10388,15 +10414,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B190" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>302</v>
       </c>
@@ -10404,47 +10430,47 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B192" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B193" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B194" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B195" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B196" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>256</v>
       </c>
@@ -10452,7 +10478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>258</v>
       </c>
@@ -10460,23 +10486,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B199" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B200" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>87</v>
       </c>
@@ -10484,7 +10510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>317</v>
       </c>
@@ -10492,15 +10518,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B203" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>90</v>
       </c>
@@ -10508,15 +10534,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B205" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>93</v>
       </c>
@@ -10524,7 +10550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>242</v>
       </c>
@@ -10532,7 +10558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>320</v>
       </c>
@@ -10540,15 +10566,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B209" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>321</v>
       </c>
@@ -10556,15 +10582,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B211" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>249</v>
       </c>
@@ -10572,7 +10598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>98</v>
       </c>
@@ -10580,7 +10606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>322</v>
       </c>
@@ -10588,7 +10614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -10596,47 +10622,47 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B216" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B217" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B218" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B219" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B220" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>104</v>
       </c>
@@ -10644,7 +10670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>86</v>
       </c>
@@ -10652,15 +10678,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B223" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>284</v>
       </c>
@@ -10668,7 +10694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>285</v>
       </c>
@@ -10676,7 +10702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>289</v>
       </c>
@@ -10684,7 +10710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>291</v>
       </c>
@@ -10692,31 +10718,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B228" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B229" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B230" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>93</v>
       </c>
@@ -10724,7 +10750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>94</v>
       </c>
@@ -10732,15 +10758,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B233" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>293</v>
       </c>
@@ -10748,7 +10774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>112</v>
       </c>
@@ -10756,7 +10782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>191</v>
       </c>
@@ -10764,7 +10790,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>114</v>
       </c>
@@ -10772,15 +10798,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B238" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>192</v>
       </c>
@@ -10788,23 +10814,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B240" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B241" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>296</v>
       </c>
@@ -10812,7 +10838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>297</v>
       </c>
@@ -10820,15 +10846,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B244" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>197</v>
       </c>
@@ -10836,15 +10862,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B246" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>250</v>
       </c>
@@ -10852,7 +10878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>298</v>
       </c>
@@ -10860,7 +10886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>118</v>
       </c>
@@ -10868,7 +10894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>218</v>
       </c>
@@ -10876,7 +10902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>300</v>
       </c>
@@ -10884,39 +10910,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B252" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B253" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B254" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B255" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>304</v>
       </c>
@@ -10924,15 +10950,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B257" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>86</v>
       </c>
@@ -10940,7 +10966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>426</v>
       </c>
@@ -10948,15 +10974,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B260" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>427</v>
       </c>
@@ -10964,7 +10990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>428</v>
       </c>
@@ -10972,7 +10998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>91</v>
       </c>
@@ -10980,7 +11006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>96</v>
       </c>
@@ -10988,7 +11014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>429</v>
       </c>
@@ -10996,7 +11022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>97</v>
       </c>
@@ -11004,7 +11030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>217</v>
       </c>
@@ -11012,7 +11038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>99</v>
       </c>
@@ -11020,7 +11046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>430</v>
       </c>
@@ -11028,23 +11054,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B270" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B271" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>431</v>
       </c>
@@ -11052,7 +11078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>105</v>
       </c>
@@ -11060,7 +11086,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>106</v>
       </c>
@@ -11068,15 +11094,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B275" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>451</v>
       </c>
@@ -11084,7 +11110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>239</v>
       </c>
@@ -11092,7 +11118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>286</v>
       </c>
@@ -11100,7 +11126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>452</v>
       </c>
@@ -11108,7 +11134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>108</v>
       </c>
@@ -11116,7 +11142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>288</v>
       </c>
@@ -11124,7 +11150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>174</v>
       </c>
@@ -11132,7 +11158,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>175</v>
       </c>
@@ -11140,7 +11166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>176</v>
       </c>
@@ -11148,7 +11174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>453</v>
       </c>
@@ -11156,7 +11182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>178</v>
       </c>
@@ -11164,7 +11190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>240</v>
       </c>
@@ -11172,15 +11198,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B288" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>91</v>
       </c>
@@ -11188,7 +11214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>454</v>
       </c>
@@ -11196,15 +11222,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B291" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>243</v>
       </c>
@@ -11212,7 +11238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>455</v>
       </c>
@@ -11220,15 +11246,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B294" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>456</v>
       </c>
@@ -11236,7 +11262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>116</v>
       </c>
@@ -11244,15 +11270,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B297" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>457</v>
       </c>
@@ -11260,7 +11286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>198</v>
       </c>
@@ -11268,7 +11294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>458</v>
       </c>
@@ -11276,7 +11302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>118</v>
       </c>
@@ -11284,7 +11310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>459</v>
       </c>
@@ -11292,7 +11318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>460</v>
       </c>
@@ -11300,7 +11326,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>461</v>
       </c>
@@ -11308,7 +11334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>462</v>
       </c>
@@ -11316,7 +11342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>303</v>
       </c>
@@ -11324,7 +11350,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>463</v>
       </c>
@@ -11332,7 +11358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>464</v>
       </c>
@@ -11340,31 +11366,31 @@
         <v>29</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B309" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B310" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B311" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>465</v>
       </c>
@@ -11372,7 +11398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>466</v>
       </c>
@@ -11380,7 +11406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>467</v>
       </c>
@@ -11388,7 +11414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>256</v>
       </c>
@@ -11396,7 +11422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>468</v>
       </c>
@@ -11404,7 +11430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>209</v>
       </c>
@@ -11412,7 +11438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>469</v>
       </c>
@@ -11420,7 +11446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>216</v>
       </c>
@@ -11428,15 +11454,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B320" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>190</v>
       </c>
@@ -11444,7 +11470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>200</v>
       </c>
@@ -11452,7 +11478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>299</v>
       </c>
@@ -11460,7 +11486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>201</v>
       </c>
@@ -11468,7 +11494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>465</v>
       </c>
